--- a/biology/Microbiologie/Trophozoïte/Trophozoïte.xlsx
+++ b/biology/Microbiologie/Trophozoïte/Trophozoïte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trophozo%C3%AFte</t>
+          <t>Trophozoïte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un trophozoïte (du grec trophê, nourriture et zôon, animal) est l’étape d'alimentation active dans le cycle de vie des parasites protozoaires tel le Plasmodium responsable de la malaria (l'opposé de l'état de trophozoïte est la forme à parois épaisses du kyste).
 Le trophozoïte subit la schizogonie (reproduction asexuée) et se développe en schizonte qui contient les mérozoïtes.puis  Un autre type de développement et de dissémination est le kyste, que l'on retrouve notamment chez le Balantidium coli (balantidium du côlon) et les amibes de l'espèce Entamoeba histolytica (protozoaire rhizopode provoquant l'amibiase).
